--- a/Projects Docs/Risk matrix -.xlsx
+++ b/Projects Docs/Risk matrix -.xlsx
@@ -111,9 +111,6 @@
     <t>Proper heat dissipation methods such as heat sink shall be installed to minimaized the hating effect.</t>
   </si>
   <si>
-    <t>Can be fatal to the system due to water dripping.</t>
-  </si>
-  <si>
     <t>Overheating of the system processor</t>
   </si>
   <si>
@@ -156,7 +153,10 @@
     <t>Regular inspections and periodic updates are needed. Testing of the software according to the test strategies.</t>
   </si>
   <si>
-    <t>The system must be in a waterproof box.</t>
+    <t>Can be fatal to the system due to water intrusion. Also lines cannot be detected by them system.</t>
+  </si>
+  <si>
+    <t>The system must be in a waterproof box. Do no use to it to drive in rainy and swony conditions.</t>
   </si>
 </sst>
 </file>
@@ -587,11 +587,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189078528"/>
-        <c:axId val="189088896"/>
+        <c:axId val="174464000"/>
+        <c:axId val="174474368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189078528"/>
+        <c:axId val="174464000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,12 +646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189088896"/>
+        <c:crossAx val="174474368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189088896"/>
+        <c:axId val="174474368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189078528"/>
+        <c:crossAx val="174464000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1572,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>10</v>
@@ -1586,7 +1586,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G10" s="5">
         <v>0.8</v>
@@ -1606,10 +1606,10 @@
         <v>16</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G11" s="5">
         <v>0.9</v>
@@ -1664,7 +1664,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>21</v>
@@ -1672,13 +1672,13 @@
     </row>
     <row r="14" spans="4:18" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="G14" s="5">
         <v>0.15</v>
@@ -1687,21 +1687,21 @@
         <v>3</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="4:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="G15" s="5">
         <v>0.25</v>
@@ -1710,10 +1710,10 @@
         <v>3</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="4:18" x14ac:dyDescent="0.25">
